--- a/Excel Spreadsheets/Projects/Table9.xlsx
+++ b/Excel Spreadsheets/Projects/Table9.xlsx
@@ -17,13 +17,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +50,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,36 +427,36 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="n">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="n">
+      <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" t="n">
+      <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" t="n">
+      <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H1" t="n">
+      <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I1" t="n">
+      <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J1" t="n">
+      <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
@@ -483,7 +488,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="n">
@@ -515,7 +520,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="n">
@@ -547,7 +552,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="n">
@@ -579,7 +584,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="n">
@@ -611,7 +616,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="n">
@@ -643,7 +648,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="n">
@@ -675,7 +680,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="n">
@@ -707,7 +712,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="n">
